--- a/Mifos Automation Excels/Client/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/55RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -644,7 +644,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,59 +694,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="9">
         <v>10000</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3">
         <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -759,9 +732,7 @@
       <c r="D3" s="11">
         <v>42036</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="3">
         <v>788.49</v>
       </c>
@@ -792,11 +763,8 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -806,12 +774,8 @@
       <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>796.37</v>
       </c>
@@ -840,13 +804,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -856,12 +817,8 @@
       <c r="C5" s="11">
         <v>42095</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>796.37</v>
       </c>
@@ -890,13 +847,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -906,12 +860,8 @@
       <c r="C6" s="11">
         <v>42125</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>796.37</v>
       </c>
@@ -940,13 +890,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -956,20 +903,16 @@
       <c r="C7" s="11">
         <v>42156</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>796.37</v>
+        <v>820.27</v>
       </c>
       <c r="G7" s="7">
-        <v>6026.03</v>
+        <v>6002.13</v>
       </c>
       <c r="H7" s="3">
-        <v>92.12</v>
+        <v>68.22</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -990,13 +933,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1006,20 +946,16 @@
       <c r="C8" s="11">
         <v>42186</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>828.23</v>
+        <v>828.47</v>
       </c>
       <c r="G8" s="7">
-        <v>5197.8</v>
+        <v>5173.66</v>
       </c>
       <c r="H8" s="3">
-        <v>60.26</v>
+        <v>60.02</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1040,13 +976,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1056,20 +989,16 @@
       <c r="C9" s="11">
         <v>42217</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>836.51</v>
+        <v>836.75</v>
       </c>
       <c r="G9" s="7">
-        <v>4361.29</v>
+        <v>4336.91</v>
       </c>
       <c r="H9" s="3">
-        <v>51.98</v>
+        <v>51.74</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1090,13 +1019,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1106,20 +1032,16 @@
       <c r="C10" s="11">
         <v>42248</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>844.88</v>
+        <v>845.12</v>
       </c>
       <c r="G10" s="7">
-        <v>3516.41</v>
+        <v>3491.79</v>
       </c>
       <c r="H10" s="3">
-        <v>43.61</v>
+        <v>43.37</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1140,13 +1062,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1156,20 +1075,16 @@
       <c r="C11" s="11">
         <v>42278</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>853.33</v>
+        <v>853.57</v>
       </c>
       <c r="G11" s="7">
-        <v>2663.08</v>
+        <v>2638.22</v>
       </c>
       <c r="H11" s="3">
-        <v>35.159999999999997</v>
+        <v>34.92</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1190,13 +1105,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1206,20 +1118,16 @@
       <c r="C12" s="11">
         <v>42309</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>861.86</v>
+        <v>862.11</v>
       </c>
       <c r="G12" s="7">
-        <v>1801.22</v>
+        <v>1776.11</v>
       </c>
       <c r="H12" s="3">
-        <v>26.63</v>
+        <v>26.38</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1240,13 +1148,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1256,20 +1161,16 @@
       <c r="C13" s="11">
         <v>42339</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>870.48</v>
+        <v>870.73</v>
       </c>
       <c r="G13" s="3">
-        <v>930.74</v>
+        <v>905.38</v>
       </c>
       <c r="H13" s="3">
-        <v>18.010000000000002</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1290,13 +1191,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1306,20 +1204,16 @@
       <c r="C14" s="11">
         <v>42370</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>930.74</v>
+        <v>905.38</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>9.31</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1328,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>940.05</v>
+        <v>914.43</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1340,10 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>940.05</v>
+        <v>914.43</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
